--- a/extracted_data.xlsx
+++ b/extracted_data.xlsx
@@ -548,31 +548,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FLPJade-pump泵体6491902</t>
+          <t>本体（来料）</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>邓鹏</t>
+          <t>刘立娟</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11/1/2024 14:05</t>
+          <t>11/2/2024 04:18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11/1/2024</t>
+          <t>11/2/2024</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6491902</t>
+          <t>5677420</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>103221</v>
+        <v>32493</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -581,72 +581,72 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Method IV / Class A</t>
+          <t>Method II&amp;III Class B</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>188</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>156</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>48</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>12415</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>4995</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>2631</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>535</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
